--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c206_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c206_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -708,10 +720,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -755,28 +767,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="2">
+      <c r="C22" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -801,28 +813,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -968,10 +980,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1015,28 +1027,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1061,28 +1073,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1315,10 +1327,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1362,28 +1374,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1408,28 +1420,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1575,10 +1587,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1622,28 +1634,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1668,28 +1680,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1951,10 +1963,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1998,28 +2010,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2044,28 +2056,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2211,10 +2223,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2258,28 +2270,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2304,28 +2316,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2529,10 +2541,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="2" t="s">
+      <c r="J83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2576,28 +2588,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="2">
+      <c r="C85" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2622,28 +2634,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2760,10 +2772,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2807,28 +2819,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2853,28 +2865,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3078,10 +3090,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3125,28 +3137,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3171,28 +3183,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3309,10 +3321,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3356,28 +3368,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3402,28 +3414,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3511,10 +3523,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3558,28 +3570,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3604,28 +3616,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3742,10 +3754,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3789,28 +3801,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3835,28 +3847,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3973,10 +3985,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4020,28 +4032,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4066,28 +4078,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4262,10 +4274,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4309,28 +4321,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4355,28 +4367,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4580,10 +4592,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4627,28 +4639,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4673,28 +4685,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4753,10 +4765,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4800,28 +4812,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4846,28 +4858,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5129,10 +5141,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5176,28 +5188,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5222,28 +5234,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5360,10 +5372,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5407,28 +5419,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5453,28 +5465,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5533,10 +5545,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5580,28 +5592,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5626,28 +5638,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5735,10 +5747,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5782,28 +5794,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5828,28 +5840,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5966,10 +5978,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6013,28 +6025,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6059,28 +6071,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6284,10 +6296,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6331,28 +6343,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6377,28 +6389,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6515,10 +6527,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
